--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\xlsxDownloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61EE4F3-B303-4FD8-80F1-149A303008F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF41504-5643-42BE-9FA8-B884B94F0B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>urls</t>
   </si>
   <si>
-    <t>https://file-examples.com/wp-content/uploads/2017/04/file_example_MP4_480_1_5MG.mp4</t>
-  </si>
-  <si>
-    <t>https://file-examples.com/wp-content/uploads/2017/04/file_example_MP4_640_3MG.mp4</t>
-  </si>
-  <si>
-    <t>https://file-examples.com/wp-content/uploads/2017/04/file_example_MP4_1280_10MG.mp4</t>
-  </si>
-  <si>
-    <t>https://file-examples.com/wp-content/uploads/2017/04/file_example_MP4_1920_18MG.mp4</t>
+    <t>https://ae04.alicdn.com/kf/Hce3834858f3c48c783bc3367fbe86e0az.jpg</t>
+  </si>
+  <si>
+    <t>https://ae04.alicdn.com/kf/H123b859e91564c53aacaaeaebed3d5cd1.jpg</t>
+  </si>
+  <si>
+    <t>https://ae04.alicdn.com/kf/Hd580e0f5e6284aab8795323ef07dec07J.jpg</t>
+  </si>
+  <si>
+    <t>https://ae04.alicdn.com/kf/H23b4a341cc554c2c8929017b79efd5fag.jpg</t>
+  </si>
+  <si>
+    <t>https://ae04.alicdn.com/kf/S6fdd6c761bd94f02b04fbaf386dda424s.jpg</t>
+  </si>
+  <si>
+    <t>https://ae04.alicdn.com/kf/Hc536e1d0588b4248a79b6fd674abdaf4E.jpg</t>
+  </si>
+  <si>
+    <t>https://ae04.alicdn.com/kf/Hcefa578dfb3346479f85fa6ae5acb199Z.jpg</t>
+  </si>
+  <si>
+    <t>https://ae04.alicdn.com/kf/HTB1kXNiAwaTBuNjSszfq6xgfpXaC.jpg</t>
   </si>
 </sst>
 </file>
@@ -371,7 +383,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A19:A20"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,16 +417,24 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -433,8 +453,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{67572946-92D0-4D08-815B-3A9EF1688008}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{0FA6B9AE-7880-4A0E-8240-B77E780BC4E7}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{AEA4E146-CACA-4608-8407-D2B7AD665AA6}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{E54ED258-9C3F-4919-A5E3-8739D2AA895E}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{C461F481-7586-493D-A488-88C4357C7795}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{17BE8AF9-3F8F-45AD-BCFD-A56D2F78D3DD}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{13A84957-4EAD-4A9F-99C7-67B35D6CD874}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{720387A1-5B55-4F3A-B966-E0058D623674}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{9F6A7386-B9A1-4053-9C24-A52D0EE33C6A}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{EA4B1193-C425-41A1-A6F3-297799D281B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
